--- a/results/I3_N5_M3_T30_C100_DepCentral_s1_P6_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1563.17224455889</v>
+        <v>304.7622697771821</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.68938030303869</v>
+        <v>40.76226977718208</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.492497702069734</v>
+        <v>5.668655038127952</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.695361957914272</v>
+        <v>5.668655038127952</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1191.840000000007</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>340.4399999999999</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,12 +628,23 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -929,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.249453373173452</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.788310969284332</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.75054662682655</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +972,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.27973517692068</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.91429431698742</v>
+        <v>24.72026482307932</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +988,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.49249770206973</v>
+        <v>23.69536195791427</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>24.74195107524319</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +1010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,13 +1042,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1045,13 +1056,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1059,13 +1070,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1073,13 +1084,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1087,13 +1098,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1101,71 +1112,15 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1268,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000003</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>40.77499999999971</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.87999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>37.77499999999971</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.0149999999997</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>41.88499999999971</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>85.06999999999913</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>88.53999999999913</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>74.90999999999913</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>82.96999999999912</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>82.74499999999912</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>191.5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.2850000000008</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>195.4400000000008</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>191.6950000000008</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>189.2200000000008</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>129.7900000000001</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>120.6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>122.4400000000001</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>130.6400000000001</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>135.3100000000001</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>85.06999999999913</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>88.53999999999913</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>74.90999999999913</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>82.96999999999912</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>82.74499999999912</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>191.5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.2850000000008</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>195.4400000000008</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>191.6950000000008</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>189.2200000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
@@ -1653,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>129.7900000000001</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
@@ -1664,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>120.6</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
@@ -1675,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>122.4400000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45">
@@ -1686,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>130.6400000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46">
@@ -1697,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>135.3100000000001</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1744,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1755,7 +1710,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1766,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1777,7 +1732,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +1743,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -1799,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>91.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>89.28500000000079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1821,7 +1776,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>95.44000000000079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>91.69500000000082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1798,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.22000000000079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1854,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>29.79000000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1865,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>20.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1876,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>22.44000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1887,7 +1842,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>30.64000000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1898,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>35.31000000000006</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1956,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1967,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1978,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1989,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2000,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2011,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2022,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2033,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +1999,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2055,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +2043,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +2054,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2165,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2153,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2164,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2250,10 +2205,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2261,10 +2216,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2272,10 +2227,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2283,10 +2238,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2294,10 +2249,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2305,111 +2260,12 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
